--- a/experiment/quadratic/ex9.2.2/Experimentos_Generador/ex9.2.2(Quadratic)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/quadratic/ex9.2.2/Experimentos_Generador/ex9.2.2(Quadratic)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,16 +57,16 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-x + y</t>
-  </si>
-  <si>
-    <t>0.019863716022031852</t>
+    <t>0.049999999999998934 - x + y</t>
+  </si>
+  <si>
+    <t>-0.049999999999998934</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.8020510098547599</t>
+    <t>0.4</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -78,58 +78,52 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-20 + x + 0.8813098741181928y</t>
-  </si>
-  <si>
-    <t>0.3163249197211968</t>
+    <t>-22.79782608695652 + x + 0.5797101449275363y</t>
+  </si>
+  <si>
+    <t>2.797826086956521</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.6464346595315031</t>
-  </si>
-  <si>
-    <t>0.5600754619724877</t>
-  </si>
-  <si>
-    <t>0.4468141828584601</t>
-  </si>
-  <si>
-    <t>-0.4930112597393438y</t>
-  </si>
-  <si>
-    <t>-5.329249644375606</t>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>-5.472000000000002 + 0.3800000000000001y</t>
+  </si>
+  <si>
+    <t>5.472000000000002</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.5539024619887478</t>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>9.3</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>0.2874811231304688</t>
-  </si>
-  <si>
-    <t>-20 + 1.2822821725910503y</t>
-  </si>
-  <si>
-    <t>-6.139055290779817</t>
+    <t>-40.0 + 1.1102230246251565e-16y</t>
+  </si>
+  <si>
+    <t>-20.0</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.9093084279442455</t>
-  </si>
-  <si>
-    <t>0.3702115656565699</t>
-  </si>
-  <si>
-    <t>0.650102623340634</t>
+    <t>1.4000000000000001</t>
   </si>
   <si>
     <t>x</t>
@@ -138,25 +132,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>10.789726408132928</t>
-  </si>
-  <si>
-    <t>10.80959012415496</t>
+    <t>14.45</t>
+  </si>
+  <si>
+    <t>14.4</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-11.098245710170643</t>
+    <t>-53.48984057971015</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-23.365432229426208</t>
-  </si>
-  <si>
-    <t>-7.445456905866033</t>
+    <t>-34.620000000000005</t>
+  </si>
+  <si>
+    <t>-24.121826086956524</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -658,13 +652,13 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -682,18 +676,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -711,12 +705,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -734,17 +728,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -762,12 +756,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.5069887402606562</v>
+        <v>1.3800000000000001</v>
       </c>
     </row>
   </sheetData>
